--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scorpion\Documents\cse310\assignments\cse310_assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAAF1D35-2804-47DD-B9E2-1F2D6D407390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A7393-A061-4553-9080-8D8785498155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5850" xr2:uid="{81C1206D-A8A0-4F44-8D13-8F81E0AE2C93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>google.com</t>
   </si>
@@ -107,13 +107,25 @@
     <t>linkedin.com</t>
   </si>
   <si>
-    <t>Dig Results</t>
-  </si>
-  <si>
     <t>Trial</t>
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>local dns results</t>
+  </si>
+  <si>
+    <t>google dns results (8.8.8.8)</t>
+  </si>
+  <si>
+    <t>myDig.py Results</t>
+  </si>
+  <si>
+    <t>25th Percentile</t>
+  </si>
+  <si>
+    <t>75th Percentile</t>
   </si>
 </sst>
 </file>
@@ -465,22 +477,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B47C225-B6B1-4F5D-8BDE-030B0F9223E8}">
-  <dimension ref="B2:AA14"/>
+  <dimension ref="A2:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -558,7 +571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>1</v>
       </c>
@@ -638,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>2</v>
       </c>
@@ -718,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>3</v>
       </c>
@@ -798,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>4</v>
       </c>
@@ -878,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>5</v>
       </c>
@@ -958,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1038,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1198,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1278,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1358,9 +1371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <f>AVERAGE(C4:C13)</f>
@@ -1461,6 +1474,1866 @@
       <c r="AA14">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.QUARTILE.INC(C$4:C$13,1 )</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AA15" si="1">_xlfn.QUARTILE.INC(D$4:D$13,1 )</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <f>_xlfn.QUARTILE.INC(C$4:C$13,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:AA16" si="2">_xlfn.QUARTILE.INC(D$4:D$13,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.105</v>
+      </c>
+      <c r="J20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.114</v>
+      </c>
+      <c r="L20">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.104</v>
+      </c>
+      <c r="O20">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="R20">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S20">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="T20">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="U20">
+        <v>0.1</v>
+      </c>
+      <c r="V20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="W20">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="X20">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(C20:C29)</f>
+        <v>3.6999999999999997E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:AA30" si="3">AVERAGE(D20:D29)</f>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999999E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1.14E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>1.03E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>1.04E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>1.03E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="3"/>
+        <v>2.0300000000000002E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>1.1600000000000001E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.QUARTILE.INC(C20:C29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:AA31" si="4">_xlfn.QUARTILE.INC(D20:D29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f>_xlfn.QUARTILE.INC(C20:C29, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:AA32" si="5">_xlfn.QUARTILE.INC(D20:D29, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" t="s">
+        <v>18</v>
+      </c>
+      <c r="V35" t="s">
+        <v>19</v>
+      </c>
+      <c r="W35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="e">
+        <f>AVERAGE(C36:C45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" t="e">
+        <f t="shared" ref="D46" si="6">AVERAGE(D36:D45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" ref="E46" si="7">AVERAGE(E36:E45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" t="e">
+        <f t="shared" ref="F46" si="8">AVERAGE(F36:F45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" t="e">
+        <f t="shared" ref="G46" si="9">AVERAGE(G36:G45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" ref="H46" si="10">AVERAGE(H36:H45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" t="e">
+        <f t="shared" ref="I46" si="11">AVERAGE(I36:I45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" t="e">
+        <f t="shared" ref="J46" si="12">AVERAGE(J36:J45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" t="e">
+        <f t="shared" ref="K46" si="13">AVERAGE(K36:K45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" ref="L46" si="14">AVERAGE(L36:L45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" t="e">
+        <f t="shared" ref="M46" si="15">AVERAGE(M36:M45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" t="e">
+        <f t="shared" ref="N46" si="16">AVERAGE(N36:N45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" t="e">
+        <f t="shared" ref="O46" si="17">AVERAGE(O36:O45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" t="e">
+        <f t="shared" ref="P46" si="18">AVERAGE(P36:P45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" t="e">
+        <f t="shared" ref="Q46" si="19">AVERAGE(Q36:Q45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" t="e">
+        <f t="shared" ref="R46" si="20">AVERAGE(R36:R45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" t="e">
+        <f t="shared" ref="S46" si="21">AVERAGE(S36:S45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" t="e">
+        <f t="shared" ref="T46" si="22">AVERAGE(T36:T45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" t="e">
+        <f t="shared" ref="U46" si="23">AVERAGE(U36:U45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" t="e">
+        <f t="shared" ref="V46" si="24">AVERAGE(V36:V45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" t="e">
+        <f t="shared" ref="W46" si="25">AVERAGE(W36:W45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X46" t="e">
+        <f t="shared" ref="X46" si="26">AVERAGE(X36:X45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y46" t="e">
+        <f t="shared" ref="Y46" si="27">AVERAGE(Y36:Y45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z46" t="e">
+        <f t="shared" ref="Z46" si="28">AVERAGE(Z36:Z45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA46" t="e">
+        <f t="shared" ref="AA46" si="29">AVERAGE(AA36:AA45)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="e">
+        <f>_xlfn.QUARTILE.INC(C36:C45,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D47" t="e">
+        <f t="shared" ref="D47:AA47" si="30">_xlfn.QUARTILE.INC(D36:D45,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA47" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="e">
+        <f>_xlfn.QUARTILE.INC(C36:C45, 3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D48" t="e">
+        <f t="shared" ref="D48:AA48" si="31">_xlfn.QUARTILE.INC(D36:D45, 3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA48" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scorpion\Documents\cse310\assignments\cse310_assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A7393-A061-4553-9080-8D8785498155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5969E4B5-DE22-483A-B18C-FD01B2412125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5850" xr2:uid="{81C1206D-A8A0-4F44-8D13-8F81E0AE2C93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>google.com</t>
   </si>
@@ -127,6 +127,12 @@
   <si>
     <t>75th Percentile</t>
   </si>
+  <si>
+    <t>All data in seconds</t>
+  </si>
+  <si>
+    <t>Scroll down for graph</t>
+  </si>
 </sst>
 </file>
 
@@ -178,6 +184,1482 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13806105815720404"/>
+          <c:y val="1.382083176278427E-2"/>
+          <c:w val="0.83193479762398126"/>
+          <c:h val="0.91064213938956839"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local dns results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$AA$5</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>yahoo.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>twitter.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>jd.com</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>live.com</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>vk.com</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>instagram.com</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sina.com.cn</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>weibo.com</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yandex.ru</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>reddit.com</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360.cn</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>blogspot.com</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>login.tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>netflix.com</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>linkedin.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F87A-4D96-890A-0AF3C1A26F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>google dns results (8.8.8.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$AA$5</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>yahoo.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>twitter.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>jd.com</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>live.com</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>vk.com</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>instagram.com</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sina.com.cn</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>weibo.com</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yandex.ru</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>reddit.com</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360.cn</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>blogspot.com</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>login.tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>netflix.com</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>linkedin.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$AA$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.6999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4000000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0100000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F87A-4D96-890A-0AF3C1A26F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>myDig.py Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$AA$5</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>yahoo.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>twitter.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>jd.com</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>live.com</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>vk.com</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>instagram.com</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sina.com.cn</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>weibo.com</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yandex.ru</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>reddit.com</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360.cn</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>blogspot.com</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>login.tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>netflix.com</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>linkedin.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$48:$AA$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.29828231334686239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30093891620635949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28299059867858845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51936540603637649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12467525005340538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48599507808685277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30309610366821249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35192821025848353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35526642799377389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57991149425506539</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58219935894012409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5892485141754138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54818260669708185</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29501922130584668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71580219268798784</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29856209754943808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52260365486144966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3188778877258297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3706836700439442</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30457067489623968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97274677753448358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.29847011566162074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.57449655532836874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F87A-4D96-890A-0AF3C1A26F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1738132879"/>
+        <c:axId val="1498996063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1738132879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498996063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1498996063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>query time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738132879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14736842105263157"/>
+          <c:y val="1.085227143440843E-2"/>
+          <c:w val="0.26773550674586727"/>
+          <c:h val="6.3607682285096945E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC5A03C-2098-4FF6-811A-7F8D72206333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,9 +1959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B47C225-B6B1-4F5D-8BDE-030B0F9223E8}">
-  <dimension ref="A2:AA48"/>
+  <dimension ref="A2:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -488,264 +1972,112 @@
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="O4">
-        <v>0.27</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="S4">
-        <v>0.245</v>
-      </c>
-      <c r="T4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0.11</v>
-      </c>
-      <c r="Z4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -763,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -781,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -802,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -813,7 +2145,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -893,7 +2225,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -973,7 +2305,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1053,7 +2385,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1133,7 +2465,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1213,7 +2545,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1293,7 +2625,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1372,648 +2704,648 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>26</v>
+      <c r="B14">
+        <v>9</v>
       </c>
       <c r="C14">
-        <f>AVERAGE(C4:C13)</f>
-        <v>1.8E-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:AA14" si="0">AVERAGE(D4:D13)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>2.3E-3</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
-        <v>1.4E-3</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>1.8E-3</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>1.4E-3</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>30</v>
+      <c r="B15">
+        <v>10</v>
       </c>
       <c r="C15">
-        <f>_xlfn.QUARTILE.INC(C$4:C$13,1 )</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:AA15" si="1">_xlfn.QUARTILE.INC(D$4:D$13,1 )</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <f>_xlfn.QUARTILE.INC(C$4:C$13,1)</f>
-        <v>0</v>
+        <f>AVERAGE(C6:C15)</f>
+        <v>1.8E-3</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:AA16" si="2">_xlfn.QUARTILE.INC(D$4:D$13,1)</f>
-        <v>0</v>
+        <f t="shared" ref="D16:AA16" si="0">AVERAGE(D6:D15)</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.3E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.8E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5E-3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5E-3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4E-3</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.QUARTILE.INC(C$6:C$15,1 )</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:AA17" si="1">_xlfn.QUARTILE.INC(D$6:D$15,1 )</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19" t="s">
-        <v>17</v>
-      </c>
-      <c r="U19" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W19" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>24</v>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <f>_xlfn.QUARTILE.INC(C$6:C$15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:AA18" si="2">_xlfn.QUARTILE.INC(D$6:D$15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D20">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.105</v>
-      </c>
-      <c r="J20">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="K20">
-        <v>0.114</v>
-      </c>
-      <c r="L20">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="M20">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="N20">
-        <v>0.104</v>
-      </c>
-      <c r="O20">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P20">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="R20">
-        <v>7.8E-2</v>
-      </c>
-      <c r="S20">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="T20">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="U20">
-        <v>0.1</v>
-      </c>
-      <c r="V20">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="W20">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="X20">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="Y20">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="Z20">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="AA20">
-        <v>0.10100000000000001</v>
+      <c r="A20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>7.8E-2</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2093,7 +3425,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2173,7 +3505,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2253,7 +3585,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2333,7 +3665,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2413,7 +3745,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2493,7 +3825,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2572,771 +3904,1622 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
-        <v>26</v>
+      <c r="B30">
+        <v>9</v>
       </c>
       <c r="C30">
-        <f>AVERAGE(C20:C29)</f>
-        <v>3.6999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:AA30" si="3">AVERAGE(D20:D29)</f>
-        <v>1.0199999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>1.0199999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>1.0499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
-        <v>1.0199999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
-        <v>1.14E-2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
-        <v>1.03E-2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>8.4000000000000012E-3</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
-        <v>3.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
-        <v>1.0199999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
-        <v>1.03E-2</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
-        <v>7.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="3"/>
-        <v>3.1899999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="3"/>
-        <v>3.2399999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="3"/>
-        <v>2.0300000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="3"/>
-        <v>1.1600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="3"/>
-        <v>5.1299999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
-        <v>30</v>
+      <c r="B31">
+        <v>10</v>
       </c>
       <c r="C31">
-        <f>_xlfn.QUARTILE.INC(C20:C29,1)</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:AA31" si="4">_xlfn.QUARTILE.INC(D20:D29,1)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <f>_xlfn.QUARTILE.INC(C20:C29, 3)</f>
-        <v>0</v>
+        <f>AVERAGE(C22:C31)</f>
+        <v>3.6999999999999997E-3</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:AA32" si="5">_xlfn.QUARTILE.INC(D20:D29, 3)</f>
-        <v>0</v>
+        <f t="shared" ref="D32:AA32" si="3">AVERAGE(D22:D31)</f>
+        <v>1.0199999999999999E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0199999999999999E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0499999999999999E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0199999999999999E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.14E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.03E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.04E-2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0199999999999999E-2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.03E-2</v>
       </c>
       <c r="R32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="T32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="V32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0300000000000002E-2</v>
       </c>
       <c r="X32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.1600000000000001E-2</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f>_xlfn.QUARTILE.INC(C22:C31,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:AA33" si="4">_xlfn.QUARTILE.INC(D22:D31,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S35" t="s">
-        <v>16</v>
-      </c>
-      <c r="T35" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35" t="s">
-        <v>18</v>
-      </c>
-      <c r="V35" t="s">
-        <v>19</v>
-      </c>
-      <c r="W35" t="s">
-        <v>20</v>
-      </c>
-      <c r="X35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>24</v>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.QUARTILE.INC(C22:C31, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:AA34" si="5">_xlfn.QUARTILE.INC(D22:D31, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36">
-        <v>1</v>
+      <c r="A36" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" t="s">
+        <v>18</v>
+      </c>
+      <c r="V37" t="s">
+        <v>19</v>
+      </c>
+      <c r="W37" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.30340075492858798</v>
+      </c>
+      <c r="D38">
+        <v>0.31345319747924799</v>
+      </c>
+      <c r="E38">
+        <v>0.29024744033813399</v>
+      </c>
+      <c r="F38">
+        <v>0.52728843688964799</v>
+      </c>
+      <c r="G38">
+        <v>0.12565565109252899</v>
+      </c>
+      <c r="H38">
+        <v>0.48774838447570801</v>
+      </c>
+      <c r="I38">
+        <v>0.31246495246887201</v>
+      </c>
+      <c r="J38">
+        <v>0.36533999443054199</v>
+      </c>
+      <c r="K38">
+        <v>0.35648798942565901</v>
+      </c>
+      <c r="L38">
+        <v>0.60002470016479403</v>
+      </c>
+      <c r="M38">
+        <v>0.59466075897216797</v>
+      </c>
+      <c r="N38">
+        <v>0.52061796188354403</v>
+      </c>
+      <c r="O38">
+        <v>0.55646848678588801</v>
+      </c>
+      <c r="P38">
+        <v>0.30618762969970698</v>
+      </c>
+      <c r="Q38">
+        <v>0.737953901290893</v>
+      </c>
+      <c r="R38">
+        <v>0.31820631027221602</v>
+      </c>
+      <c r="T38">
+        <v>0.52515411376953103</v>
+      </c>
+      <c r="U38">
+        <v>0.33496332168579102</v>
+      </c>
+      <c r="V38">
+        <v>0.30327630043029702</v>
+      </c>
+      <c r="X38">
+        <v>0.30743288993835399</v>
+      </c>
+      <c r="Y38">
+        <v>0.96841573715209905</v>
+      </c>
+      <c r="Z38">
+        <v>0.3025803565979</v>
+      </c>
+      <c r="AA38">
+        <v>0.58717083930969205</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0.293653964996337</v>
+      </c>
+      <c r="D39">
+        <v>0.30334520339965798</v>
+      </c>
+      <c r="E39">
+        <v>0.28620815277099598</v>
+      </c>
+      <c r="F39">
+        <v>0.52689552307128895</v>
+      </c>
+      <c r="G39">
+        <v>0.123617649078369</v>
+      </c>
+      <c r="H39">
+        <v>0.48447656631469699</v>
+      </c>
+      <c r="I39">
+        <v>0.29991793632507302</v>
+      </c>
+      <c r="J39">
+        <v>0.34547066688537598</v>
+      </c>
+      <c r="K39">
+        <v>0.355538129806518</v>
+      </c>
+      <c r="L39">
+        <v>0.57614779472350997</v>
+      </c>
+      <c r="M39">
+        <v>0.57903718948364202</v>
+      </c>
+      <c r="N39">
+        <v>0.528278589248657</v>
+      </c>
+      <c r="O39">
+        <v>0.537192583084106</v>
+      </c>
+      <c r="P39">
+        <v>0.29115223884582497</v>
+      </c>
+      <c r="Q39">
+        <v>0.70969605445861805</v>
+      </c>
+      <c r="R39">
+        <v>0.28971338272094699</v>
+      </c>
+      <c r="T39">
+        <v>0.52646756172180098</v>
+      </c>
+      <c r="U39">
+        <v>0.31708908081054599</v>
+      </c>
+      <c r="V39">
+        <v>0.29266667366027799</v>
+      </c>
+      <c r="X39">
+        <v>0.29918670654296797</v>
+      </c>
+      <c r="Y39">
+        <v>0.92181181907653797</v>
+      </c>
+      <c r="Z39">
+        <v>0.30052375793456998</v>
+      </c>
+      <c r="AA39">
+        <v>0.570936679840087</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0.30450248718261702</v>
+      </c>
+      <c r="D40">
+        <v>0.30224633216857899</v>
+      </c>
+      <c r="E40">
+        <v>0.289389848709106</v>
+      </c>
+      <c r="F40">
+        <v>0.51527309417724598</v>
+      </c>
+      <c r="G40">
+        <v>0.124725341796875</v>
+      </c>
+      <c r="H40">
+        <v>0.47592258453369102</v>
+      </c>
+      <c r="I40">
+        <v>0.301659345626831</v>
+      </c>
+      <c r="J40">
+        <v>0.35526013374328602</v>
+      </c>
+      <c r="K40">
+        <v>0.356421709060668</v>
+      </c>
+      <c r="L40">
+        <v>0.57848548889160101</v>
+      </c>
+      <c r="M40">
+        <v>0.59634423255920399</v>
+      </c>
+      <c r="N40">
+        <v>0.50265860557556097</v>
+      </c>
+      <c r="O40">
+        <v>0.54192709922790505</v>
+      </c>
+      <c r="P40">
+        <v>0.29655933380126898</v>
+      </c>
+      <c r="Q40">
+        <v>0.71320390701293901</v>
+      </c>
+      <c r="R40">
+        <v>0.29614377021789501</v>
+      </c>
+      <c r="T40">
+        <v>0.52062702178955</v>
+      </c>
+      <c r="U40">
+        <v>0.31317853927612299</v>
+      </c>
+      <c r="V40">
+        <v>0.28964686393737699</v>
+      </c>
+      <c r="X40">
+        <v>0.30391001701354903</v>
+      </c>
+      <c r="Y40">
+        <v>0.94174385070800704</v>
+      </c>
+      <c r="Z40">
+        <v>0.30411362648010198</v>
+      </c>
+      <c r="AA40">
+        <v>0.57967805862426702</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0.29019403457641602</v>
+      </c>
+      <c r="D41">
+        <v>0.299724340438842</v>
+      </c>
+      <c r="E41">
+        <v>0.29588127136230402</v>
+      </c>
+      <c r="F41">
+        <v>0.51739668846130304</v>
+      </c>
+      <c r="G41">
+        <v>0.12653613090515101</v>
+      </c>
+      <c r="H41">
+        <v>0.48962879180908198</v>
+      </c>
+      <c r="I41">
+        <v>0.30006575584411599</v>
+      </c>
+      <c r="J41">
+        <v>0.34780979156494102</v>
+      </c>
+      <c r="K41">
+        <v>0.35655593872070301</v>
+      </c>
+      <c r="L41">
+        <v>0.57042455673217696</v>
+      </c>
+      <c r="M41">
+        <v>0.57868218421936002</v>
+      </c>
+      <c r="N41">
+        <v>0.50796389579772905</v>
+      </c>
+      <c r="O41">
+        <v>0.55583858489990201</v>
+      </c>
+      <c r="P41">
+        <v>0.29260420799255299</v>
+      </c>
+      <c r="Q41">
+        <v>0.71249651908874501</v>
+      </c>
+      <c r="R41">
+        <v>0.30125498771667403</v>
+      </c>
+      <c r="T41">
+        <v>0.51513838768005304</v>
+      </c>
+      <c r="U41">
+        <v>0.31382966041564903</v>
+      </c>
+      <c r="V41">
+        <v>0.29648447036743097</v>
+      </c>
+      <c r="X41">
+        <v>0.31207537651062001</v>
+      </c>
+      <c r="Y41">
+        <v>0.943118095397949</v>
+      </c>
+      <c r="Z41">
+        <v>0.29848384857177701</v>
+      </c>
+      <c r="AA41">
+        <v>0.59063124656677202</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.300545454025268</v>
+      </c>
+      <c r="D42">
+        <v>0.29970383644103998</v>
+      </c>
+      <c r="E42">
+        <v>0.29434585571289001</v>
+      </c>
+      <c r="F42">
+        <v>0.51794695854187001</v>
+      </c>
+      <c r="G42">
+        <v>0.1266930103302</v>
+      </c>
+      <c r="H42">
+        <v>0.48042798042297302</v>
+      </c>
+      <c r="I42">
+        <v>0.30316066741943298</v>
+      </c>
+      <c r="J42">
+        <v>0.34955215454101501</v>
+      </c>
+      <c r="K42">
+        <v>0.351275444030761</v>
+      </c>
+      <c r="L42">
+        <v>0.57958269119262695</v>
+      </c>
+      <c r="M42">
+        <v>0.57858324050903298</v>
+      </c>
+      <c r="N42">
+        <v>0.52152824401855402</v>
+      </c>
+      <c r="O42">
+        <v>0.54796147346496504</v>
+      </c>
+      <c r="P42">
+        <v>0.29163813591003401</v>
+      </c>
+      <c r="Q42">
+        <v>0.70880794525146396</v>
+      </c>
+      <c r="R42">
+        <v>0.299129247665405</v>
+      </c>
+      <c r="T42">
+        <v>0.52141785621643</v>
+      </c>
+      <c r="U42">
+        <v>0.316660165786743</v>
+      </c>
+      <c r="V42">
+        <v>0.29710984230041498</v>
+      </c>
+      <c r="X42">
+        <v>0.30024290084838801</v>
+      </c>
+      <c r="Y42">
+        <v>0.93691158294677701</v>
+      </c>
+      <c r="Z42">
+        <v>0.29604649543762201</v>
+      </c>
+      <c r="AA42">
+        <v>0.58073687553405695</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>0.294908046722412</v>
+      </c>
+      <c r="D43">
+        <v>0.30263686180114702</v>
+      </c>
+      <c r="E43">
+        <v>0.275280952453613</v>
+      </c>
+      <c r="F43">
+        <v>0.513288974761962</v>
+      </c>
+      <c r="G43">
+        <v>0.12117958068847599</v>
+      </c>
+      <c r="H43">
+        <v>0.48687529563903797</v>
+      </c>
+      <c r="I43">
+        <v>0.30718135833740201</v>
+      </c>
+      <c r="J43">
+        <v>0.34826350212097101</v>
+      </c>
+      <c r="K43">
+        <v>0.34817194938659601</v>
+      </c>
+      <c r="L43">
+        <v>0.58154940605163497</v>
+      </c>
+      <c r="M43">
+        <v>0.57793211936950595</v>
+      </c>
+      <c r="N43">
+        <v>0.51354622840881303</v>
+      </c>
+      <c r="O43">
+        <v>0.552071332931518</v>
+      </c>
+      <c r="P43">
+        <v>0.28813242912292403</v>
+      </c>
+      <c r="Q43">
+        <v>0.70417118072509699</v>
+      </c>
+      <c r="R43">
+        <v>0.299358129501342</v>
+      </c>
+      <c r="T43">
+        <v>0.52420139312744096</v>
+      </c>
+      <c r="U43">
+        <v>0.31804943084716703</v>
+      </c>
+      <c r="V43">
+        <v>1.0439596176147401</v>
+      </c>
+      <c r="X43">
+        <v>0.30401086807250899</v>
+      </c>
+      <c r="Y43">
+        <v>0.98454213142394997</v>
+      </c>
+      <c r="Z43">
+        <v>0.29505276679992598</v>
+      </c>
+      <c r="AA43">
+        <v>0.57582974433898904</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.29865980148315402</v>
+      </c>
+      <c r="D44">
+        <v>0.296940088272094</v>
+      </c>
+      <c r="E44">
+        <v>0.27954769134521401</v>
+      </c>
+      <c r="F44">
+        <v>0.513272285461425</v>
+      </c>
+      <c r="G44">
+        <v>0.12610244750976499</v>
+      </c>
+      <c r="H44">
+        <v>0.48712277412414501</v>
+      </c>
+      <c r="I44">
+        <v>0.30773162841796797</v>
+      </c>
+      <c r="J44">
+        <v>0.34914970397949202</v>
+      </c>
+      <c r="K44">
+        <v>0.35399055480956998</v>
+      </c>
+      <c r="L44">
+        <v>0.58559751510620095</v>
+      </c>
+      <c r="M44">
+        <v>0.58147859573364202</v>
+      </c>
+      <c r="N44">
+        <v>0.51561427116393999</v>
+      </c>
+      <c r="O44">
+        <v>0.54166889190673795</v>
+      </c>
+      <c r="P44">
+        <v>0.29380321502685502</v>
+      </c>
+      <c r="Q44">
+        <v>0.71492743492126398</v>
+      </c>
+      <c r="R44">
+        <v>0.29395747184753401</v>
+      </c>
+      <c r="T44">
+        <v>0.52071905136108398</v>
+      </c>
+      <c r="U44">
+        <v>0.31863927841186501</v>
+      </c>
+      <c r="V44">
+        <v>0.297155141830444</v>
+      </c>
+      <c r="X44">
+        <v>0.306264638900756</v>
+      </c>
+      <c r="Y44">
+        <v>1.00236916542053</v>
+      </c>
+      <c r="Z44">
+        <v>0.29176831245422302</v>
+      </c>
+      <c r="AA44">
+        <v>0.57746124267578103</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>0.2934250831604</v>
+      </c>
+      <c r="D45">
+        <v>0.299124956130981</v>
+      </c>
+      <c r="E45">
+        <v>0.27056431770324701</v>
+      </c>
+      <c r="F45">
+        <v>0.51434183120727495</v>
+      </c>
+      <c r="G45">
+        <v>0.122686624526977</v>
+      </c>
+      <c r="H45">
+        <v>0.49411869049072199</v>
+      </c>
+      <c r="I45">
+        <v>0.30436658859252902</v>
+      </c>
+      <c r="J45">
+        <v>0.35593390464782698</v>
+      </c>
+      <c r="K45">
+        <v>0.35581302642822199</v>
+      </c>
+      <c r="L45">
+        <v>0.57594680786132801</v>
+      </c>
+      <c r="M45">
+        <v>0.57624840736389105</v>
+      </c>
+      <c r="N45">
+        <v>1.2617592811584399</v>
+      </c>
+      <c r="O45">
+        <v>0.55217957496643</v>
+      </c>
+      <c r="P45">
+        <v>0.29213452339172302</v>
+      </c>
+      <c r="Q45">
+        <v>0.71221232414245605</v>
+      </c>
+      <c r="R45">
+        <v>0.29355072975158603</v>
+      </c>
+      <c r="T45">
+        <v>0.51933836936950595</v>
+      </c>
+      <c r="U45">
+        <v>0.320093393325805</v>
+      </c>
+      <c r="V45">
+        <v>0.28716564178466703</v>
+      </c>
+      <c r="X45">
+        <v>0.30475330352783198</v>
+      </c>
+      <c r="Y45">
+        <v>1.01354312896728</v>
+      </c>
+      <c r="Z45">
+        <v>0.291725873947143</v>
+      </c>
+      <c r="AA45">
+        <v>0.55378174781799305</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="e">
-        <f>AVERAGE(C36:C45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" t="e">
-        <f t="shared" ref="D46" si="6">AVERAGE(D36:D45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" t="e">
-        <f t="shared" ref="E46" si="7">AVERAGE(E36:E45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" t="e">
-        <f t="shared" ref="F46" si="8">AVERAGE(F36:F45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" t="e">
-        <f t="shared" ref="G46" si="9">AVERAGE(G36:G45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" t="e">
-        <f t="shared" ref="H46" si="10">AVERAGE(H36:H45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" t="e">
-        <f t="shared" ref="I46" si="11">AVERAGE(I36:I45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" t="e">
-        <f t="shared" ref="J46" si="12">AVERAGE(J36:J45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" t="e">
-        <f t="shared" ref="K46" si="13">AVERAGE(K36:K45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" t="e">
-        <f t="shared" ref="L46" si="14">AVERAGE(L36:L45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" t="e">
-        <f t="shared" ref="M46" si="15">AVERAGE(M36:M45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" t="e">
-        <f t="shared" ref="N46" si="16">AVERAGE(N36:N45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O46" t="e">
-        <f t="shared" ref="O46" si="17">AVERAGE(O36:O45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" t="e">
-        <f t="shared" ref="P46" si="18">AVERAGE(P36:P45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" t="e">
-        <f t="shared" ref="Q46" si="19">AVERAGE(Q36:Q45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" t="e">
-        <f t="shared" ref="R46" si="20">AVERAGE(R36:R45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" t="e">
-        <f t="shared" ref="S46" si="21">AVERAGE(S36:S45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" t="e">
-        <f t="shared" ref="T46" si="22">AVERAGE(T36:T45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U46" t="e">
-        <f t="shared" ref="U46" si="23">AVERAGE(U36:U45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V46" t="e">
-        <f t="shared" ref="V46" si="24">AVERAGE(V36:V45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" t="e">
-        <f t="shared" ref="W46" si="25">AVERAGE(W36:W45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X46" t="e">
-        <f t="shared" ref="X46" si="26">AVERAGE(X36:X45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y46" t="e">
-        <f t="shared" ref="Y46" si="27">AVERAGE(Y36:Y45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z46" t="e">
-        <f t="shared" ref="Z46" si="28">AVERAGE(Z36:Z45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA46" t="e">
-        <f t="shared" ref="AA46" si="29">AVERAGE(AA36:AA45)</f>
-        <v>#DIV/0!</v>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>0.30284976959228499</v>
+      </c>
+      <c r="D46">
+        <v>0.29494023323058999</v>
+      </c>
+      <c r="E46">
+        <v>0.27483105659484802</v>
+      </c>
+      <c r="F46">
+        <v>0.52594304084777799</v>
+      </c>
+      <c r="G46">
+        <v>0.119930028915405</v>
+      </c>
+      <c r="H46">
+        <v>0.49307107925415</v>
+      </c>
+      <c r="I46">
+        <v>0.29288983345031699</v>
+      </c>
+      <c r="J46">
+        <v>0.35384416580200101</v>
+      </c>
+      <c r="K46">
+        <v>0.356395483016967</v>
+      </c>
+      <c r="L46">
+        <v>0.57801198959350497</v>
+      </c>
+      <c r="M46">
+        <v>0.58698701858520497</v>
+      </c>
+      <c r="N46">
+        <v>0.50357484817504805</v>
+      </c>
+      <c r="O46">
+        <v>0.54330825805663996</v>
+      </c>
+      <c r="P46">
+        <v>0.30144500732421797</v>
+      </c>
+      <c r="Q46">
+        <v>0.71468520164489702</v>
+      </c>
+      <c r="R46">
+        <v>0.29615688323974598</v>
+      </c>
+      <c r="T46">
+        <v>0.53435373306274403</v>
+      </c>
+      <c r="U46">
+        <v>0.31967234611511203</v>
+      </c>
+      <c r="V46">
+        <v>0.298628330230712</v>
+      </c>
+      <c r="X46">
+        <v>0.29989242553710899</v>
+      </c>
+      <c r="Y46">
+        <v>1.0180203914642301</v>
+      </c>
+      <c r="Z46">
+        <v>0.29322075843811002</v>
+      </c>
+      <c r="AA46">
+        <v>0.56015825271606401</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" t="e">
-        <f>_xlfn.QUARTILE.INC(C36:C45,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D47" t="e">
-        <f t="shared" ref="D47:AA47" si="30">_xlfn.QUARTILE.INC(D36:D45,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA47" t="e">
-        <f t="shared" si="30"/>
-        <v>#NUM!</v>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0.30068373680114702</v>
+      </c>
+      <c r="D47">
+        <v>0.29727411270141602</v>
+      </c>
+      <c r="E47">
+        <v>0.273609399795532</v>
+      </c>
+      <c r="F47">
+        <v>0.52200722694396895</v>
+      </c>
+      <c r="G47">
+        <v>0.12962603569030701</v>
+      </c>
+      <c r="H47">
+        <v>0.48055863380432101</v>
+      </c>
+      <c r="I47">
+        <v>0.30152297019958402</v>
+      </c>
+      <c r="J47">
+        <v>0.34865808486938399</v>
+      </c>
+      <c r="K47">
+        <v>0.36201405525207497</v>
+      </c>
+      <c r="L47">
+        <v>0.57334399223327603</v>
+      </c>
+      <c r="M47">
+        <v>0.57203984260559004</v>
+      </c>
+      <c r="N47">
+        <v>0.51694321632385198</v>
+      </c>
+      <c r="O47">
+        <v>0.55320978164672796</v>
+      </c>
+      <c r="P47">
+        <v>0.29653549194335899</v>
+      </c>
+      <c r="Q47">
+        <v>0.72986745834350497</v>
+      </c>
+      <c r="R47">
+        <v>0.29815006256103499</v>
+      </c>
+      <c r="T47">
+        <v>0.51861906051635698</v>
+      </c>
+      <c r="U47">
+        <v>0.31660366058349598</v>
+      </c>
+      <c r="V47">
+        <v>0.300743818283081</v>
+      </c>
+      <c r="X47">
+        <v>0.307937622070312</v>
+      </c>
+      <c r="Y47">
+        <v>0.99699187278747503</v>
+      </c>
+      <c r="Z47">
+        <v>0.31118535995483398</v>
+      </c>
+      <c r="AA47">
+        <v>0.56858086585998502</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(C38:C47)</f>
+        <v>0.29828231334686239</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="6">AVERAGE(D38:D47)</f>
+        <v>0.30093891620635949</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="7">AVERAGE(E38:E47)</f>
+        <v>0.28299059867858845</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="8">AVERAGE(F38:F47)</f>
+        <v>0.51936540603637649</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48" si="9">AVERAGE(G38:G47)</f>
+        <v>0.12467525005340538</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48" si="10">AVERAGE(H38:H47)</f>
+        <v>0.48599507808685277</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48" si="11">AVERAGE(I38:I47)</f>
+        <v>0.30309610366821249</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48" si="12">AVERAGE(J38:J47)</f>
+        <v>0.35192821025848353</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ref="K48" si="13">AVERAGE(K38:K47)</f>
+        <v>0.35526642799377389</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48" si="14">AVERAGE(L38:L47)</f>
+        <v>0.57991149425506539</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48" si="15">AVERAGE(M38:M47)</f>
+        <v>0.58219935894012409</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48" si="16">AVERAGE(N38:N47)</f>
+        <v>0.5892485141754138</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48" si="17">AVERAGE(O38:O47)</f>
+        <v>0.54818260669708185</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ref="P48" si="18">AVERAGE(P38:P47)</f>
+        <v>0.29501922130584668</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ref="Q48" si="19">AVERAGE(Q38:Q47)</f>
+        <v>0.71580219268798784</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48" si="20">AVERAGE(R38:R47)</f>
+        <v>0.29856209754943808</v>
+      </c>
+      <c r="S48" t="e">
+        <f t="shared" ref="S48" si="21">AVERAGE(S38:S47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48" si="22">AVERAGE(T38:T47)</f>
+        <v>0.52260365486144966</v>
+      </c>
+      <c r="U48">
+        <f t="shared" ref="U48" si="23">AVERAGE(U38:U47)</f>
+        <v>0.3188778877258297</v>
+      </c>
+      <c r="V48">
+        <f t="shared" ref="V48" si="24">AVERAGE(V38:V47)</f>
+        <v>0.3706836700439442</v>
+      </c>
+      <c r="W48" t="e">
+        <f t="shared" ref="W48" si="25">AVERAGE(W38:W47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X48">
+        <f t="shared" ref="X48" si="26">AVERAGE(X38:X47)</f>
+        <v>0.30457067489623968</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" ref="Y48" si="27">AVERAGE(Y38:Y47)</f>
+        <v>0.97274677753448358</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" ref="Z48" si="28">AVERAGE(Z38:Z47)</f>
+        <v>0.29847011566162074</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" ref="AA48" si="29">AVERAGE(AA38:AA47)</f>
+        <v>0.57449655532836874</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <f>_xlfn.QUARTILE.INC(C38:C47,1)</f>
+        <v>0.29396748542785578</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:AA49" si="30">_xlfn.QUARTILE.INC(D38:D47,1)</f>
+        <v>0.29773682355880726</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="30"/>
+        <v>0.27494353055953924</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="30"/>
+        <v>0.51457464694976773</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="30"/>
+        <v>0.122919380664825</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="30"/>
+        <v>0.48153811693191501</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="30"/>
+        <v>0.30043005943298301</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="30"/>
+        <v>0.34836214780807429</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="30"/>
+        <v>0.35437744855880698</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="30"/>
+        <v>0.57599705457687356</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="30"/>
+        <v>0.57809489965438776</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="30"/>
+        <v>0.50935947895050004</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="30"/>
+        <v>0.54227238893508878</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="30"/>
+        <v>0.29176223278045627</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="30"/>
+        <v>0.71032512187957753</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="30"/>
+        <v>0.29450404644012429</v>
+      </c>
+      <c r="S49" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="30"/>
+        <v>0.51966053247451693</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="30"/>
+        <v>0.31661778688430775</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="30"/>
+        <v>0.29362112283706621</v>
+      </c>
+      <c r="W49" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="30"/>
+        <v>0.30115967988967829</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="30"/>
+        <v>0.9420874118804925</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="30"/>
+        <v>0.29367876052856401</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="30"/>
+        <v>0.56916981935501054</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C48" t="e">
-        <f>_xlfn.QUARTILE.INC(C36:C45, 3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D48" t="e">
-        <f t="shared" ref="D48:AA48" si="31">_xlfn.QUARTILE.INC(D36:D45, 3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E48" t="e">
+      <c r="C50">
+        <f>_xlfn.QUARTILE.INC(C38:C47, 3)</f>
+        <v>0.30230826139450051</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:AA50" si="31">_xlfn.QUARTILE.INC(D38:D47, 3)</f>
+        <v>0.30253922939300504</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="31"/>
+        <v>0.29003304243087702</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="31"/>
+        <v>0.52495908737182573</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="31"/>
+        <v>0.12642771005630449</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="31"/>
+        <v>0.48915868997573847</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="31"/>
+        <v>0.30647766590118375</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="31"/>
+        <v>0.35490614175796475</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="31"/>
+        <v>0.35647141933441129</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="31"/>
+        <v>0.58105772733688299</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="31"/>
+        <v>0.58560991287231423</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="31"/>
+        <v>0.52130067348480158</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="31"/>
+        <v>0.5529522299766535</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="31"/>
+        <v>0.29655337333679149</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="31"/>
+        <v>0.71486687660217219</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="31"/>
+        <v>0.29930090904235773</v>
+      </c>
+      <c r="S50" t="e">
         <f t="shared" si="31"/>
         <v>#NUM!</v>
       </c>
-      <c r="F48" t="e">
+      <c r="T50">
+        <f t="shared" si="31"/>
+        <v>0.52491593360900857</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="31"/>
+        <v>0.31941407918930026</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="31"/>
+        <v>0.30021494626998874</v>
+      </c>
+      <c r="W50" t="e">
         <f t="shared" si="31"/>
         <v>#NUM!</v>
       </c>
-      <c r="G48" t="e">
+      <c r="X50">
         <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H48" t="e">
+        <v>0.30714082717895452</v>
+      </c>
+      <c r="Y50">
         <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I48" t="e">
+        <v>1.0010248422622663</v>
+      </c>
+      <c r="Z50">
         <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J48" t="e">
+        <v>0.30206620693206748</v>
+      </c>
+      <c r="AA50">
         <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA48" t="e">
-        <f t="shared" si="31"/>
-        <v>#NUM!</v>
+        <v>0.58047217130660944</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>